--- a/TimeSeries/forecasted_data/irraggiamento_1h_forecast.xlsx
+++ b/TimeSeries/forecasted_data/irraggiamento_1h_forecast.xlsx
@@ -440,7322 +440,7322 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.697370171546936</v>
+        <v>-0.002478025379762772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6950837373733521</v>
+        <v>-0.001877425178124587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6873817443847656</v>
+        <v>0.0001457332383321686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6916050910949707</v>
+        <v>-0.0009636548713465032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7009999752044678</v>
+        <v>-0.003431501685272703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5618631839752197</v>
+        <v>0.03311693073103689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1014308258891106</v>
+        <v>0.2073509063566977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.055634737014771</v>
+        <v>0.4580010532304559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.835085034370422</v>
+        <v>0.6627469458379536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.32516622543335</v>
+        <v>0.7914814029992934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.650976896286011</v>
+        <v>0.8770653034110185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.959033489227295</v>
+        <v>0.9579855651767388</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.959299564361572</v>
+        <v>0.9580554577549483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.801299095153809</v>
+        <v>0.9165519171057281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.480074644088745</v>
+        <v>0.8321727242517414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.987868905067444</v>
+        <v>0.7028801911366167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.34422504901886</v>
+        <v>0.5338079151042832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6238439679145813</v>
+        <v>0.3445783157717297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1330824494361877</v>
+        <v>0.1457489927418296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.5929903984069824</v>
+        <v>0.02494043849691016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.7118943333625793</v>
+        <v>-0.006293230127786292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.7056189775466919</v>
+        <v>-0.004644820559770863</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.70599764585495</v>
+        <v>-0.004744289096814847</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.7003924250602722</v>
+        <v>-0.003271910500306646</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.6958762407302856</v>
+        <v>-0.002085599846554764</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.6898415684700012</v>
+        <v>-0.000500413000494887</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.6970030069351196</v>
+        <v>-0.002381578632054432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.7047534584999084</v>
+        <v>-0.00441746614037597</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.6871405243873596</v>
+        <v>0.0002090968727437859</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.5191229581832886</v>
+        <v>0.04434392712798871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.08227897435426712</v>
+        <v>0.2023201007352347</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9207028150558472</v>
+        <v>0.4225571552725604</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.725042343139648</v>
+        <v>0.6338409474472755</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.248754501342773</v>
+        <v>0.771409582246027</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.54212212562561</v>
+        <v>0.8484713478258319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.757652521133423</v>
+        <v>0.9050868412857807</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.794798612594604</v>
+        <v>0.9148443712769831</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.714071035385132</v>
+        <v>0.8936388628438361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.367412567138672</v>
+        <v>0.8025786659950258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.932418346405029</v>
+        <v>0.6883144463194841</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.189810276031494</v>
+        <v>0.4932462646252964</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4092032015323639</v>
+        <v>0.288196509963229</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.1966380476951599</v>
+        <v>0.1290542172829151</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.6079660654067993</v>
+        <v>0.02100663243169665</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.7007128596305847</v>
+        <v>-0.003356082207397554</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.7008002400398254</v>
+        <v>-0.003379035280796971</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.7015250325202942</v>
+        <v>-0.003569423665883531</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6958872079849243</v>
+        <v>-0.002088480723434344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.6927444934844971</v>
+        <v>-0.001262952928033551</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.6938477158546448</v>
+        <v>-0.001552747222405865</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.6955769658088684</v>
+        <v>-0.00200698635300875</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.6958490014076233</v>
+        <v>-0.002078444625174453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.6883880496025085</v>
+        <v>-0.0001186028723106081</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.5492525100708008</v>
+        <v>0.03642950074826815</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.08907396346330643</v>
+        <v>0.2041050075023607</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.948499858379364</v>
+        <v>0.4298588786363606</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.756507158279419</v>
+        <v>0.6421061205870873</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.248077869415283</v>
+        <v>0.7712318446681072</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.600877523422241</v>
+        <v>0.8639052073139766</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.8799889087677</v>
+        <v>0.9372221460890939</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.877261161804199</v>
+        <v>0.936505621906931</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.67252516746521</v>
+        <v>0.8827256002018484</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.283236980438232</v>
+        <v>0.7804674349220362</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.851453304290771</v>
+        <v>0.667046560639118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.24692714214325</v>
+        <v>0.5082497148448533</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6124116182327271</v>
+        <v>0.3415752677927201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.1048209890723228</v>
+        <v>0.1531727091073526</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.5982606410980225</v>
+        <v>0.02355605190074628</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.7059577703475952</v>
+        <v>-0.004733814604247155</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.6927239894866943</v>
+        <v>-0.001257566940823879</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.694966733455658</v>
+        <v>-0.001846690605762341</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.6945145130157471</v>
+        <v>-0.001727901405297577</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.6916876435279846</v>
+        <v>-0.0009853397326413105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.6890381574630737</v>
+        <v>-0.0002893731121246801</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.6929217576980591</v>
+        <v>-0.001309516666294031</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.7040952444076538</v>
+        <v>-0.004244566556781321</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.6874518394470215</v>
+        <v>0.0001273206774060343</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.5113928914070129</v>
+        <v>0.04637445996297967</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.1260151863098145</v>
+        <v>0.2138087226351675</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8442425727844238</v>
+        <v>0.4024725897704897</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.536184310913086</v>
+        <v>0.5842317465585118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.123968601226807</v>
+        <v>0.738630839854431</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.523357629776001</v>
+        <v>0.8435422927403542</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.90810751914978</v>
+        <v>0.9446083386418367</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.94054651260376</v>
+        <v>0.9531294088018667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.765414476394653</v>
+        <v>0.9071257505834378</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.473549604415894</v>
+        <v>0.8304587277638964</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.99764096736908</v>
+        <v>0.7054471150640977</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.345945835113525</v>
+        <v>0.5342599309494682</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6555669903755188</v>
+        <v>0.3529113147737285</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.07197876274585724</v>
+        <v>0.1617997004206441</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.6080659031867981</v>
+        <v>0.02098040705792856</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.71189945936203</v>
+        <v>-0.00629457662458871</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.6985165476799011</v>
+        <v>-0.002779155298378688</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.7035020589828491</v>
+        <v>-0.004088748694249966</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.7049309015274048</v>
+        <v>-0.004464076849455129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.7001447677612305</v>
+        <v>-0.003206855916422224</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.6925894618034363</v>
+        <v>-0.001222229228230093</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.68853759765625</v>
+        <v>-0.0001578861336742621</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.7001866698265076</v>
+        <v>-0.003217862744935046</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.696036159992218</v>
+        <v>-0.002127607415402383</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.5154980421066284</v>
+        <v>0.04529611956445448</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.07171284407377243</v>
+        <v>0.1995445911446599</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.8023549318313599</v>
+        <v>0.3914695502370476</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.622443675994873</v>
+        <v>0.6068903442386253</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.108466625213623</v>
+        <v>0.7345587830128759</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.463746309280396</v>
+        <v>0.8278835996000842</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.697000026702881</v>
+        <v>0.8891546527252234</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.898693799972534</v>
+        <v>0.9421355442350086</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.76359748840332</v>
+        <v>0.9066484644377981</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.351176023483276</v>
+        <v>0.7983136530302959</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.921552658081055</v>
+        <v>0.6854602488649004</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.226015329360962</v>
+        <v>0.5027566028546775</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.6098992228507996</v>
+        <v>0.3409153121331985</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.1731830835342407</v>
+        <v>0.135215363913427</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.6046832799911499</v>
+        <v>0.02186895403507058</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.7024365067481995</v>
+        <v>-0.003808849585681506</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.6912816166877747</v>
+        <v>-0.0008786846603378862</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.6936715245246887</v>
+        <v>-0.001506465309057514</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.696841835975647</v>
+        <v>-0.002339242267475977</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.6964272856712341</v>
+        <v>-0.00223034825281504</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.7001689076423645</v>
+        <v>-0.003213196976945248</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.699552059173584</v>
+        <v>-0.003051163309407356</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.7023078799247742</v>
+        <v>-0.00377506191010446</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.6711049675941467</v>
+        <v>0.004421314637267304</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.5269961357116699</v>
+        <v>0.04227580198110689</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.07699993252754211</v>
+        <v>0.2009334027833678</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.6137539744377136</v>
+        <v>0.3419278777286193</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.293812990188599</v>
+        <v>0.5205656827022935</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.819031476974487</v>
+        <v>0.6585299996776821</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.395809412002563</v>
+        <v>0.8100379451416488</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.55131983757019</v>
+        <v>0.8508874014836836</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.583024740219116</v>
+        <v>0.8592156407760552</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.261909484863281</v>
+        <v>0.7748651314353479</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.018914461135864</v>
+        <v>0.7110352333635419</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.735065817832947</v>
+        <v>0.6364739123458335</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.097381830215454</v>
+        <v>0.4689671737004084</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.3300331830978394</v>
+        <v>0.2674001408462736</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.245148628950119</v>
+        <v>0.1163114647383957</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.6146572828292847</v>
+        <v>0.01924898439634989</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.6936949491500854</v>
+        <v>-0.001512618486305795</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.6931931376457214</v>
+        <v>-0.001380802712124568</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.6998470425605774</v>
+        <v>-0.003128649503304853</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.6941807866096497</v>
+        <v>-0.001640238200684124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.6938179731369019</v>
+        <v>-0.001544934409563908</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.6796963810920715</v>
+        <v>0.002164523368650861</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.6965517997741699</v>
+        <v>-0.002263055599562247</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.7216535210609436</v>
+        <v>-0.008856772156321774</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.720897376537323</v>
+        <v>-0.008658148221025064</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.5540992617607117</v>
+        <v>0.03515635670769965</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.1500110328197479</v>
+        <v>0.2201119481637442</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9572053551673889</v>
+        <v>0.4321456372873007</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.53435230255127</v>
+        <v>0.5837505148641022</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.087518692016602</v>
+        <v>0.729056182917325</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.526371479034424</v>
+        <v>0.8443339702324197</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.693738698959351</v>
+        <v>0.8882979676200922</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.876948356628418</v>
+        <v>0.936423454288104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.841038227081299</v>
+        <v>0.9269905865956809</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.429511547088623</v>
+        <v>0.8188908171648988</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.949014067649841</v>
+        <v>0.6926738080020209</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.333003640174866</v>
+        <v>0.5308602770343873</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.5648161172866821</v>
+        <v>0.3290728884128423</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.1707924008369446</v>
+        <v>0.1358433481023609</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.6162049174308777</v>
+        <v>0.01884245196059559</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.701746940612793</v>
+        <v>-0.003627714451876707</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.6923462748527527</v>
+        <v>-0.001158348914812896</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.7030024528503418</v>
+        <v>-0.003957512226832577</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.7090632319450378</v>
+        <v>-0.005549556812421058</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.7048246264457703</v>
+        <v>-0.004436160526214233</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.7014984488487244</v>
+        <v>-0.003562440670838413</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.6945687532424927</v>
+        <v>-0.001742149220299943</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.6914147138595581</v>
+        <v>-0.0009136466063821569</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.7060210108757019</v>
+        <v>-0.004750426617123549</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.5480231046676636</v>
+        <v>0.03675244078369538</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.1084033325314522</v>
+        <v>0.2091824434040773</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.9971763491630554</v>
+        <v>0.4426452122721538</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.681321620941162</v>
+        <v>0.6223563943945116</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.215466737747192</v>
+        <v>0.7626655572666192</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.656266450881958</v>
+        <v>0.878454762855601</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.908519744873047</v>
+        <v>0.9447166220358545</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.912294149398804</v>
+        <v>0.9457080820767445</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.724225997924805</v>
+        <v>0.8963063669510702</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.460849285125732</v>
+        <v>0.8271226097095623</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.041870355606079</v>
+        <v>0.7170652844390926</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.410343050956726</v>
+        <v>0.5511757823950129</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.6292092800140381</v>
+        <v>0.3459876751864966</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.1181803345680237</v>
+        <v>0.1496634781436224</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.6115801930427551</v>
+        <v>0.02005727390129178</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.7145175337791443</v>
+        <v>-0.006982292037955612</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.7105685472488403</v>
+        <v>-0.005944972821085609</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.7049648761749268</v>
+        <v>-0.004473001305006052</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.700154721736908</v>
+        <v>-0.003209470625329253</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.6975185871124268</v>
+        <v>-0.002517011159274718</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.7038336396217346</v>
+        <v>-0.004175848249039132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.7170348167419434</v>
+        <v>-0.00764353156652145</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.7245063781738281</v>
+        <v>-0.009606160254627516</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.6788595914840698</v>
+        <v>0.002384331143176349</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-0.5146071314811707</v>
+        <v>0.04553014384010323</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.05208709836006165</v>
+        <v>0.1943893030680836</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9373353123664856</v>
+        <v>0.4269261772868078</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.678109765052795</v>
+        <v>0.6215127045492177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.235049486160278</v>
+        <v>0.7678095508184182</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.585462331771851</v>
+        <v>0.8598559469764253</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.711263179779053</v>
+        <v>0.8929012957349005</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.795069217681885</v>
+        <v>0.9149154537825992</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.729526519775391</v>
+        <v>0.8976987072725322</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.39674973487854</v>
+        <v>0.8102849490201953</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.947239279747009</v>
+        <v>0.6922076069695919</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.314732313156128</v>
+        <v>0.5260607674668543</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.6180813908576965</v>
+        <v>0.3430646028547751</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.1644301116466522</v>
+        <v>0.137514593316729</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.6095298528671265</v>
+        <v>0.02059585696532074</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.7037221193313599</v>
+        <v>-0.004146554115116691</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-0.6951591968536377</v>
+        <v>-0.001897246863611396</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.6987348794937134</v>
+        <v>-0.002836506667998118</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.6990587711334229</v>
+        <v>-0.002921586477583671</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.7008102536201477</v>
+        <v>-0.00338166564664355</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.6987910270690918</v>
+        <v>-0.002851255505066486</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.6930374503135681</v>
+        <v>-0.001339906785985889</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-0.7096225619316101</v>
+        <v>-0.005696481533280617</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.6948229670524597</v>
+        <v>-0.001808926067536298</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.5249381065368652</v>
+        <v>0.04281640479033949</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.1087661460042</v>
+        <v>0.2092777471951975</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.000683903694153</v>
+        <v>0.4435665761946199</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.675229907035828</v>
+        <v>0.6207562238572899</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.177374601364136</v>
+        <v>0.7526595203306723</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.559487581253052</v>
+        <v>0.8530329032258859</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.868612051010132</v>
+        <v>0.9342336747208175</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.880372285842896</v>
+        <v>0.9373228515243632</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.640744209289551</v>
+        <v>0.8743773826545944</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.288230419158936</v>
+        <v>0.7817791106908694</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.830982565879822</v>
+        <v>0.6616693100017088</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.270277976989746</v>
+        <v>0.5143835088019485</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.5403797030448914</v>
+        <v>0.3226539346154854</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-0.194433331489563</v>
+        <v>0.1296333518204123</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-0.6123382449150085</v>
+        <v>0.01985814894392904</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-0.6991044282913208</v>
+        <v>-0.002933579693288946</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-0.6933193802833557</v>
+        <v>-0.00141396411011907</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-0.6998181343078613</v>
+        <v>-0.003121055887616769</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-0.7046405076980591</v>
+        <v>-0.004387796239904013</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.7061058878898621</v>
+        <v>-0.004772722099061322</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.7116197943687439</v>
+        <v>-0.006221114264158917</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-0.7090520858764648</v>
+        <v>-0.005546628964722772</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.7085148096084595</v>
+        <v>-0.005405497311501528</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-0.673778235912323</v>
+        <v>0.00371910089786498</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.5173415541648865</v>
+        <v>0.04481186608070925</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.03702981024980545</v>
+        <v>0.1904340567812559</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.9009177684783936</v>
+        <v>0.4173600220678845</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.632725596427917</v>
+        <v>0.6095911976271287</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.209261894226074</v>
+        <v>0.7610356698581069</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.583578586578369</v>
+        <v>0.859361125058475</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.776130676269531</v>
+        <v>0.9099406804335974</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.771525382995605</v>
+        <v>0.9087309626551989</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.484904527664185</v>
+        <v>0.8334414373784134</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.299551725387573</v>
+        <v>0.7847529897914729</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.847373008728027</v>
+        <v>0.6659747491843906</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.235835313796997</v>
+        <v>0.5053361149615673</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.5750949382781982</v>
+        <v>0.3317729276404883</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.1575881838798523</v>
+        <v>0.1393118299237609</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-0.600206196308136</v>
+        <v>0.02304499373646912</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.7006107568740845</v>
+        <v>-0.003329261869926076</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-0.6910420656204224</v>
+        <v>-0.0008157594202340412</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-0.6927052736282349</v>
+        <v>-0.00125265066180108</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-0.6980590224266052</v>
+        <v>-0.0026589726302928</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-0.7012826800346375</v>
+        <v>-0.003505762549620206</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-0.6975921988487244</v>
+        <v>-0.002536347479635076</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-0.6983723640441895</v>
+        <v>-0.002741281161575709</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.6945419907569885</v>
+        <v>-0.001735119254436118</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.6786438822746277</v>
+        <v>0.002440993607455005</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-0.5499833822250366</v>
+        <v>0.03623751535534617</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.01941408589482307</v>
+        <v>0.1858067608276528</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.8390980958938599</v>
+        <v>0.4011212393168039</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.559448480606079</v>
+        <v>0.5903427753254824</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.10863471031189</v>
+        <v>0.7346029355824437</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.546715259552002</v>
+        <v>0.8496778715885596</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.832664489746094</v>
+        <v>0.9247909744703486</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.756904125213623</v>
+        <v>0.9048902527526272</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.610553503036499</v>
+        <v>0.866446892254882</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.231817722320557</v>
+        <v>0.7669606315553104</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.739537119865417</v>
+        <v>0.6376484333240944</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.143388867378235</v>
+        <v>0.4810522956409313</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.5089309215545654</v>
+        <v>0.3143929731924161</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-0.1559692025184631</v>
+        <v>0.1397371037161722</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-0.6121549010276794</v>
+        <v>0.01990630969002494</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.7016503214836121</v>
+        <v>-0.003602334552845032</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.6952320337295532</v>
+        <v>-0.001916379643757432</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-0.7018935680389404</v>
+        <v>-0.00366623052320178</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.7006993293762207</v>
+        <v>-0.003352528082116751</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.6965752840042114</v>
+        <v>-0.002269224433750078</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-0.6885566711425781</v>
+        <v>-0.0001628963543344464</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-0.6909373998641968</v>
+        <v>-0.0007882658343613402</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.7111844420433044</v>
+        <v>-0.0061067559775905</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.6916911602020264</v>
+        <v>-0.0009862634920755342</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-0.5314047932624817</v>
+        <v>0.04111773644632671</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.1174637004733086</v>
+        <v>0.2115624195589408</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.8903387784957886</v>
+        <v>0.4145811344925989</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.596450328826904</v>
+        <v>0.6000624155229423</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.167160511016846</v>
+        <v>0.7499764845393917</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.617494106292725</v>
+        <v>0.8682700489253605</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.868351459503174</v>
+        <v>0.9341652225810479</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.882368564605713</v>
+        <v>0.9378472337442085</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.707182168960571</v>
+        <v>0.8918292963968983</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.384906053543091</v>
+        <v>0.8071738525012613</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.932064175605774</v>
+        <v>0.6882214127846005</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.29039204120636</v>
+        <v>0.5196670683130125</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.6177076697349548</v>
+        <v>0.3429664338437148</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-0.1062307208776474</v>
+        <v>0.1528024009583949</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-0.6136921644210815</v>
+        <v>0.01950250156175462</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-0.7001646757125854</v>
+        <v>-0.003212085334236281</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-0.6985407471656799</v>
+        <v>-0.00278551201584129</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-0.7031866312026978</v>
+        <v>-0.004005892170082348</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-0.7020685076713562</v>
+        <v>-0.003712183640819322</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-0.6970646381378174</v>
+        <v>-0.002397767907562631</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.6886379718780518</v>
+        <v>-0.0001842524198984452</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.6918569207191467</v>
+        <v>-0.001029805441000342</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-0.7037240266799927</v>
+        <v>-0.00414705513718272</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.6919320225715637</v>
+        <v>-0.001049533184849766</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-0.5383252501487732</v>
+        <v>0.03929987182142053</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.0414716824889183</v>
+        <v>0.1916008471456075</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.924577534198761</v>
+        <v>0.4235749659427349</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1.695665121078491</v>
+        <v>0.6261241429587197</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.200305461883545</v>
+        <v>0.7586829954916063</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.567140579223633</v>
+        <v>0.8550431916380219</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.808601379394531</v>
+        <v>0.918470080085475</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.922747850418091</v>
+        <v>0.9484540587650685</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.711289644241333</v>
+        <v>0.8929082474160666</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.374279737472534</v>
+        <v>0.8043825333159627</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.846283435821533</v>
+        <v>0.6656885403291782</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1.244797348976135</v>
+        <v>0.5076902610803867</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.5895089507102966</v>
+        <v>0.3355591983641993</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-0.1391323804855347</v>
+        <v>0.1441597977192416</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-0.5905907154083252</v>
+        <v>0.02557078688371811</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-0.7057269811630249</v>
+        <v>-0.00467319093425908</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-0.6912761926651001</v>
+        <v>-0.0008772598788376607</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-0.6948854923248291</v>
+        <v>-0.00182535019713792</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-0.6988950371742249</v>
+        <v>-0.002878576864603993</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-0.700539767742157</v>
+        <v>-0.003310614454906491</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-0.6942921280860901</v>
+        <v>-0.001669485363787859</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-0.6935228109359741</v>
+        <v>-0.001467401244847732</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-0.6846681833267212</v>
+        <v>0.0008585310688790926</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-0.6840493083000183</v>
+        <v>0.001021097072362115</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-0.5418894290924072</v>
+        <v>0.03836363380636948</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.09019307047128677</v>
+        <v>0.2043989743711265</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.9220771193504333</v>
+        <v>0.4229181573280655</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1.665146231651306</v>
+        <v>0.6181074454497733</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.200195550918579</v>
+        <v>0.7586541240950522</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.594455003738403</v>
+        <v>0.8622181407621801</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.877028942108154</v>
+        <v>0.9364446224703933</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.902403116226196</v>
+        <v>0.9431099068978954</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.708141565322876</v>
+        <v>0.892081310496105</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.428755283355713</v>
+        <v>0.818692161915723</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1.987817406654358</v>
+        <v>0.702866663540834</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1.29774022102356</v>
+        <v>0.5215972871362231</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.6369580626487732</v>
+        <v>0.3480231243005104</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-0.1387045234441757</v>
+        <v>0.14427218714566</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-0.612392246723175</v>
+        <v>0.01984396375668493</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-0.7159164547920227</v>
+        <v>-0.007349760409500139</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-0.7076870799064636</v>
+        <v>-0.005188069391789618</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-0.7049127817153931</v>
+        <v>-0.004459317139827973</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-0.7016243934631348</v>
+        <v>-0.003595523784135107</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.6950389742851257</v>
+        <v>-0.001865666816512734</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.6970539689064026</v>
+        <v>-0.002394965315380831</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.7051928043365479</v>
+        <v>-0.004532873441895124</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>-0.7058947086334229</v>
+        <v>-0.004717249562189468</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-0.6941608190536499</v>
+        <v>-0.00163499312593049</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-0.5125306844711304</v>
+        <v>0.04607558464366082</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.05054350197315216</v>
+        <v>0.1939838313899846</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.8969797492027283</v>
+        <v>0.416325583727894</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1.688095450401306</v>
+        <v>0.6241357429480927</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.194115161895752</v>
+        <v>0.7570569283763473</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.514080762863159</v>
+        <v>0.8411054466667627</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.776758909225464</v>
+        <v>0.9101057045765919</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.871734142303467</v>
+        <v>0.9350537852151295</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.716713428497314</v>
+        <v>0.8943329662885449</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.349600791931152</v>
+        <v>0.7978998714315237</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1.85970664024353</v>
+        <v>0.6692145457465328</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1.264376759529114</v>
+        <v>0.5128333778435703</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.5597797632217407</v>
+        <v>0.3277499396475237</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>-0.1947436034679413</v>
+        <v>0.1295518496215169</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>-0.6204883456230164</v>
+        <v>0.01771728165583736</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-0.7048369646072388</v>
+        <v>-0.004439401512703778</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-0.7064763307571411</v>
+        <v>-0.0048700299784456</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>-0.7083644270896912</v>
+        <v>-0.005365994852983974</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-0.7002038955688477</v>
+        <v>-0.003222387600468751</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-0.6969027519226074</v>
+        <v>-0.002355243659709405</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-0.6869881153106689</v>
+        <v>0.000249131667206498</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.6894691586494446</v>
+        <v>-0.0004025884421050008</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-0.7081537842750549</v>
+        <v>-0.005310663228568213</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.688259482383728</v>
+        <v>-8.483085367314014e-05</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-0.5202653408050537</v>
+        <v>0.0440438462243235</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.02199242636561394</v>
+        <v>0.1864840389336835</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.7999270558357239</v>
+        <v>0.3908317961178264</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1.630340576171875</v>
+        <v>0.6089647008474532</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.191854953765869</v>
+        <v>0.7564632172281169</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.554265737533569</v>
+        <v>0.8516612300646471</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.81367015838623</v>
+        <v>0.9198015462259159</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.568886995315552</v>
+        <v>0.8555019399672188</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.382528781890869</v>
+        <v>0.8065493911237289</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.198734521865845</v>
+        <v>0.7582703411924829</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.706512570381165</v>
+        <v>0.628973549389797</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.8186343312263489</v>
+        <v>0.3957458205413235</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.3197928965091705</v>
+        <v>0.264710223830055</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>-0.2181103825569153</v>
+        <v>0.1234138674330885</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-0.6280722618103027</v>
+        <v>0.01572513963665495</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>-0.6914564371109009</v>
+        <v>-0.0009246064640762997</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-0.6950429677963257</v>
+        <v>-0.001866715831463472</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-0.6990151405334473</v>
+        <v>-0.002910125597823526</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.6941038966178894</v>
+        <v>-0.0016200407486478</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>-0.694103479385376</v>
+        <v>-0.001619931150070864</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-0.6887534856796265</v>
+        <v>-0.0002145955687715972</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.6777715086936951</v>
+        <v>0.002670148574899639</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.6810215711593628</v>
+        <v>0.001816422631345821</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.6790045499801636</v>
+        <v>0.002346253466159048</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>-0.5752245187759399</v>
+        <v>0.02960717721694869</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-0.07501615583896637</v>
+        <v>0.1610018384374512</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.8106743097305298</v>
+        <v>0.3936548832334983</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.544908404350281</v>
+        <v>0.5865233901745956</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.093754768371582</v>
+        <v>0.7306942745621685</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.424893617630005</v>
+        <v>0.8176777801153128</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.659909248352051</v>
+        <v>0.8794116523739357</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.740538120269775</v>
+        <v>0.9005912329151662</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.608439445495605</v>
+        <v>0.8658915719224602</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.282990217208862</v>
+        <v>0.7804026151922452</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1.839222431182861</v>
+        <v>0.6638337566407824</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1.20150887966156</v>
+        <v>0.4963192521533341</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.5395548343658447</v>
+        <v>0.3224372582288725</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-0.1735011041164398</v>
+        <v>0.1351318263123884</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-0.6156911849975586</v>
+        <v>0.01897739912268942</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-0.699977695941925</v>
+        <v>-0.00316296951482703</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-0.6909999251365662</v>
+        <v>-0.0008046899639629901</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-0.6903232336044312</v>
+        <v>-0.0006269367291037997</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-0.6940887570381165</v>
+        <v>-0.001616063885998775</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-0.6967064142227173</v>
+        <v>-0.002303669700788769</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-0.6902522444725037</v>
+        <v>-0.0006082893140842149</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-0.6880101561546326</v>
+        <v>-1.93378754809459e-05</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-0.6865032911300659</v>
+        <v>0.0003764852136122487</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-0.6771852970123291</v>
+        <v>0.002824134575502124</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-0.5598343014717102</v>
+        <v>0.03364987729682314</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.0181378498673439</v>
+        <v>0.1854715193305226</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.8774749636650085</v>
+        <v>0.4112020694530434</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1.50120484828949</v>
+        <v>0.5750433463204259</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.077624797821045</v>
+        <v>0.726457256205377</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.52483057975769</v>
+        <v>0.843929207030836</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.834537029266357</v>
+        <v>0.9252828528836612</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.920454978942871</v>
+        <v>0.9478517676139575</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.634343147277832</v>
+        <v>0.8726959526010405</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.304270267486572</v>
+        <v>0.7859924557550415</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1.849395990371704</v>
+        <v>0.6665061457131601</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1.196422815322876</v>
+        <v>0.4949832455004199</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.5483649373054504</v>
+        <v>0.3247514948087457</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-0.1697155237197876</v>
+        <v>0.1361262220294463</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>-0.6385807394981384</v>
+        <v>0.0129647742208725</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-0.6977088451385498</v>
+        <v>-0.002566988110359963</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-0.6918686628341675</v>
+        <v>-0.001032889858094271</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-0.7008417248725891</v>
+        <v>-0.003389932510732829</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-0.6973919272422791</v>
+        <v>-0.00248374016270328</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.6927225589752197</v>
+        <v>-0.001257191174274364</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-0.683378279209137</v>
+        <v>0.001197362897962823</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.677044689655304</v>
+        <v>0.002861069295931329</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-0.6890830397605896</v>
+        <v>-0.0003011627876156331</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-0.6863698363304138</v>
+        <v>0.0004115411012938774</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-0.555927574634552</v>
+        <v>0.034676095743543</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>-0.03789672255516052</v>
+        <v>0.170752365862434</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.8728910088539124</v>
+        <v>0.4099979568590083</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.613163471221924</v>
+        <v>0.6044526213764183</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.172659873962402</v>
+        <v>0.7514210564112358</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.557256698608398</v>
+        <v>0.8524468952919204</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.829929351806641</v>
+        <v>0.92407250882768</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.849056959152222</v>
+        <v>0.9290969459889757</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.666283369064331</v>
+        <v>0.881086005490807</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.383899688720703</v>
+        <v>0.8069095007336788</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1.866968154907227</v>
+        <v>0.6711219993796188</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.223758339881897</v>
+        <v>0.5021637371811835</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.5527598857879639</v>
+        <v>0.3259059592474264</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-0.1902865767478943</v>
+        <v>0.1307226207627525</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>-0.6279529333114624</v>
+        <v>0.01575648482966016</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>-0.7026392221450806</v>
+        <v>-0.003862098837135397</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-0.6914200782775879</v>
+        <v>-0.000915055730942832</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-0.6944421529769897</v>
+        <v>-0.001708893880668028</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-0.6937676072120667</v>
+        <v>-0.001531704295633124</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.688212513923645</v>
+        <v>-7.249318529745086e-05</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-0.6931244730949402</v>
+        <v>-0.001362765917747949</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.686151385307312</v>
+        <v>0.0004689237847924355</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.6853229403495789</v>
+        <v>0.0006865395877791169</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.6458315253257751</v>
+        <v>0.01106013883690793</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-0.5451546311378479</v>
+        <v>0.03750593100016664</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>-0.1608196496963501</v>
+        <v>0.1384629889453508</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.7447677850723267</v>
+        <v>0.3763425667643384</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1.502468466758728</v>
+        <v>0.5753752734391624</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.121105909347534</v>
+        <v>0.7378788683610975</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.481723785400391</v>
+        <v>0.8326059204555714</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.763327360153198</v>
+        <v>0.9065775071876985</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.915412664413452</v>
+        <v>0.9465272531546827</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.660555839538574</v>
+        <v>0.8795814988543156</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.292794227600098</v>
+        <v>0.7829779312393321</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1.71983790397644</v>
+        <v>0.6324738461123891</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1.110392332077026</v>
+        <v>0.4723847704682285</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.4849244356155396</v>
+        <v>0.3080869529001274</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-0.2216822504997253</v>
+        <v>0.1224756096728339</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-0.6158583760261536</v>
+        <v>0.0189334814072151</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>-0.6962218284606934</v>
+        <v>-0.002176378782141247</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>-0.6901903748512268</v>
+        <v>-0.0005920374108177862</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>-0.6952558755874634</v>
+        <v>-0.001922642419582649</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>-0.6962154507637024</v>
+        <v>-0.002174703489608021</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>-0.6915842890739441</v>
+        <v>-0.0009581905994390238</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-0.6840287446975708</v>
+        <v>0.001026498716511365</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>-0.6775758862495422</v>
+        <v>0.002721534650545532</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>-0.6819267868995667</v>
+        <v>0.001578640690201943</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>-0.6774992346763611</v>
+        <v>0.002741669474823599</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>-0.5701049566268921</v>
+        <v>0.03095198306989722</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>-0.1291269510984421</v>
+        <v>0.1467880224793469</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.7398431301116943</v>
+        <v>0.375048959103761</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1.453977465629578</v>
+        <v>0.5626376641992894</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.031113624572754</v>
+        <v>0.71423970787003</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.470258235931396</v>
+        <v>0.8295941515612253</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.853817462921143</v>
+        <v>0.9303474344379965</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.85229229927063</v>
+        <v>0.9299468046684574</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.56330132484436</v>
+        <v>0.8540346968468873</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.369595766067505</v>
+        <v>0.8031521483773409</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1.908657670021057</v>
+        <v>0.6820729952459534</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1.215951085090637</v>
+        <v>0.5001129286094583</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.5054770708084106</v>
+        <v>0.3134857161724962</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>-0.2336870729923248</v>
+        <v>0.1193221846177911</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>-0.6443299651145935</v>
+        <v>0.01145456845838003</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>-0.7115790247917175</v>
+        <v>-0.006210404917497803</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>-0.7017838358879089</v>
+        <v>-0.003637406097466239</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>-0.7002988457679749</v>
+        <v>-0.003247329105192681</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>-0.6965886354446411</v>
+        <v>-0.002272731588212201</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>-0.6931544542312622</v>
+        <v>-0.001370641358348135</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>-0.6941704750061035</v>
+        <v>-0.00163752955013971</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>-0.6990752220153809</v>
+        <v>-0.002925907792903054</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>-0.7002503871917725</v>
+        <v>-0.003234600013327926</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>-0.6866159439086914</v>
+        <v>0.0003468935978380994</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>-0.5495328903198242</v>
+        <v>0.03635585050456361</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>-0.09843449294567108</v>
+        <v>0.1548503129963008</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.7038080096244812</v>
+        <v>0.3655832588090741</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1.47759211063385</v>
+        <v>0.5688407557708907</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2.024734973907471</v>
+        <v>0.7125641648257519</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2.352701902389526</v>
+        <v>0.7987144706831095</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2.714447021484375</v>
+        <v>0.8937376268185997</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2.931292295455933</v>
+        <v>0.9506985123653093</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>2.724941253662109</v>
+        <v>0.8964942502258266</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>2.345424652099609</v>
+        <v>0.796802883617979</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1.828188180923462</v>
+        <v>0.6609352813611145</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1.261194229125977</v>
+        <v>0.5119973912125413</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.5291869640350342</v>
+        <v>0.3197138275335192</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>-0.2222002744674683</v>
+        <v>0.1223395352110915</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>-0.6388920545578003</v>
+        <v>0.01288299802553475</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>-0.7068386673927307</v>
+        <v>-0.00496520851404933</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>-0.705491840839386</v>
+        <v>-0.004611424307682882</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>-0.7046575546264648</v>
+        <v>-0.004392274124619039</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>-0.6966632008552551</v>
+        <v>-0.00229231841960556</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>-0.6964675784111023</v>
+        <v>-0.002240932343959667</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>-0.682862401008606</v>
+        <v>0.001332873709880916</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>-0.6861141920089722</v>
+        <v>0.0004786937150797754</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>-0.6996275782585144</v>
+        <v>-0.003071000651833744</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>-0.685889720916748</v>
+        <v>0.0005376577494741741</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>-0.5479367971420288</v>
+        <v>0.03677511203218267</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>-0.07154865562915802</v>
+        <v>0.161912680896531</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.7255597114562988</v>
+        <v>0.3712969927346326</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>1.498557686805725</v>
+        <v>0.5743479903205522</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>2.018156766891479</v>
+        <v>0.7108362023478165</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>2.46823525428772</v>
+        <v>0.8290627550324556</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.699967861175537</v>
+        <v>0.8899342430599464</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.76891016960144</v>
+        <v>0.9080439987749309</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.602615118026733</v>
+        <v>0.8643616384161183</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>2.309582233428955</v>
+        <v>0.7873878022088994</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>1.793171048164368</v>
+        <v>0.6517369859372246</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>1.211183309555054</v>
+        <v>0.4988605300138109</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.5291868448257446</v>
+        <v>0.3197137962196401</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>-0.1941428482532501</v>
+        <v>0.1297096559153728</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>-0.634533703327179</v>
+        <v>0.01402784910332372</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>-0.7060996294021606</v>
+        <v>-0.004771078120407196</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>-0.6897060871124268</v>
+        <v>-0.0004648247768681002</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>-0.6948955655097961</v>
+        <v>-0.001827996219924077</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>-0.6981273293495178</v>
+        <v>-0.002676915483032061</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>-0.6907306313514709</v>
+        <v>-0.0007339519110171611</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>-0.6848628520965576</v>
+        <v>0.0008073955042662007</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>-0.6766082644462585</v>
+        <v>0.002975709407411903</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>-0.6767001152038574</v>
+        <v>0.002951582063545261</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>-0.689058244228363</v>
+        <v>-0.0002946495007574157</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>-0.5776905417442322</v>
+        <v>0.02895940265640706</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>-0.1634985506534576</v>
+        <v>0.1377592956251598</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.4638158679008484</v>
+        <v>0.302542157352454</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>1.366718530654907</v>
+        <v>0.5397164996427037</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>1.946645855903625</v>
+        <v>0.6920517264793025</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2.124011278152466</v>
+        <v>0.7386420502231583</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.50128436088562</v>
+        <v>0.837744089625853</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.673359632492065</v>
+        <v>0.8829447973557309</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.518789529800415</v>
+        <v>0.8423423448922429</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.245327711105347</v>
+        <v>0.7705094334766687</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>1.745763659477234</v>
+        <v>0.6392840198586077</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>1.146585583686829</v>
+        <v>0.4818920086235762</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.44625324010849</v>
+        <v>0.2979288087963256</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>-0.2560807764530182</v>
+        <v>0.1134398097961991</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>-0.6388075351715088</v>
+        <v>0.01290519956583513</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>-0.6980130672454834</v>
+        <v>-0.002646901129889689</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>-0.688367486000061</v>
+        <v>-0.0001132012281613581</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>-0.6922198534011841</v>
+        <v>-0.001125140545999687</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>-0.6905527710914612</v>
+        <v>-0.0006872316033610659</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>-0.684727668762207</v>
+        <v>0.0008429054431951799</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>-0.6871167421340942</v>
+        <v>0.0002153439916294519</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>-0.6859551668167114</v>
+        <v>0.0005204664298339434</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>-0.6881014108657837</v>
+        <v>-4.330864995194528e-05</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>-0.6683316230773926</v>
+        <v>0.005149816378195921</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-0.5627290606498718</v>
+        <v>0.03288948237000461</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>-0.1550053656101227</v>
+        <v>0.1399902842573763</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.4956452250480652</v>
+        <v>0.3109030883346334</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1.384330153465271</v>
+        <v>0.5443427182031531</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>1.976121068000793</v>
+        <v>0.6997942709764999</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.399707794189453</v>
+        <v>0.8110619716168299</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>2.6793532371521</v>
+        <v>0.884519196570432</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.702170372009277</v>
+        <v>0.8905127982906798</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.511821508407593</v>
+        <v>0.8405119860295653</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.263522386550903</v>
+        <v>0.7752888082199236</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>1.67846405506134</v>
+        <v>0.6216057693979804</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>1.176300525665283</v>
+        <v>0.4896975253316962</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.3489539325237274</v>
+        <v>0.2723702405988158</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>-0.3137942850589752</v>
+        <v>0.09827963361161628</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>-0.5996899008750916</v>
+        <v>0.02318061414696415</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>-0.6984177231788635</v>
+        <v>-0.002753196092583177</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>-0.6943293809890747</v>
+        <v>-0.001679270951014777</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>-0.695212185382843</v>
+        <v>-0.001911165882882926</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-0.693548321723938</v>
+        <v>-0.001474102414980694</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>-0.696216881275177</v>
+        <v>-0.002175079256157536</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>-0.6981868743896484</v>
+        <v>-0.002692556765655524</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>-0.6950184106826782</v>
+        <v>-0.001860265172363512</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>-0.6970328688621521</v>
+        <v>-0.002389422758775517</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>-0.6695345044136047</v>
+        <v>0.00483384368087425</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>-0.5501406192779541</v>
+        <v>0.03619621234877887</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>-0.07980474829673767</v>
+        <v>0.1597439716556613</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.7934706211090088</v>
+        <v>0.3891358207674184</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1.564198613166809</v>
+        <v>0.5915905394670192</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>2.072227001190186</v>
+        <v>0.7250393637585482</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.487152338027954</v>
+        <v>0.8340318918832148</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>2.804219245910645</v>
+        <v>0.9173189818888006</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>2.833158731460571</v>
+        <v>0.9249208018132054</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.572769641876221</v>
+        <v>0.8565218330103552</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.170685291290283</v>
+        <v>0.7509023733173916</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1.754504084587097</v>
+        <v>0.6415799534761317</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1.152299284934998</v>
+        <v>0.4833928828500891</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.5046008229255676</v>
+        <v>0.31325554350398</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>-0.2181878387928009</v>
+        <v>0.1233935212401264</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>-0.6471557021141052</v>
+        <v>0.01071230426757547</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>-0.695859968662262</v>
+        <v>-0.00208132550205406</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>-0.6965224742889404</v>
+        <v>-0.002255352385297227</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>-0.6962849497795105</v>
+        <v>-0.002192959481138512</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>-0.6954488754272461</v>
+        <v>-0.001973339589887768</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>-0.6929753422737122</v>
+        <v>-0.001323592254961203</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>-0.6891621351242065</v>
+        <v>-0.0003219395464157948</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>-0.6969133019447327</v>
+        <v>-0.002358014938012076</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>-0.702822744846344</v>
+        <v>-0.003910306554050003</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>-0.6796443462371826</v>
+        <v>0.00217819187688939</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>-0.5446292161941528</v>
+        <v>0.03764394692241482</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>-0.08295954018831253</v>
+        <v>0.1589152713728816</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.7163823843002319</v>
+        <v>0.3688862937501115</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>1.508044004440308</v>
+        <v>0.5768398548797682</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2.039020776748657</v>
+        <v>0.7163167574724627</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.468009233474731</v>
+        <v>0.8290033839176327</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.712827205657959</v>
+        <v>0.8933121338290346</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.798780202865601</v>
+        <v>0.915890254839794</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.621801614761353</v>
+        <v>0.8694015446337022</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.294793844223022</v>
+        <v>0.7835031902477929</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>1.857119679450989</v>
+        <v>0.6685350032556179</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>1.225689649581909</v>
+        <v>0.502671053336905</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.5059218406677246</v>
+        <v>0.3136025482555156</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>-0.2049349844455719</v>
+        <v>0.1268747791242098</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>-0.6477968692779541</v>
+        <v>0.01054388256869584</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>-0.7004091739654541</v>
+        <v>-0.003276310100323865</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>-0.688378632068634</v>
+        <v>-0.0001161290758596445</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>-0.6924017667770386</v>
+        <v>-0.001172925525546098</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>-0.6941056251525879</v>
+        <v>-0.001620494799895122</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>-0.6914331316947937</v>
+        <v>-0.0009184846007071479</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>-0.6799434423446655</v>
+        <v>0.002099625354162055</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>-0.6829577088356018</v>
+        <v>0.001307838263519628</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>-0.6844719052314758</v>
+        <v>0.0009100893708601787</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>-0.6774022579193115</v>
+        <v>0.002767143315492659</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>-0.5391236543655396</v>
+        <v>0.03909014711597361</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>-0.1026482209563255</v>
+        <v>0.1537434515252441</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.493263840675354</v>
+        <v>0.3102775466282713</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1.182991862297058</v>
+        <v>0.4914552046809221</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1.645493745803833</v>
+        <v>0.6129451332786855</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>2.116485118865967</v>
+        <v>0.7366650797784124</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.276213884353638</v>
+        <v>0.7786226090472024</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.558830976486206</v>
+        <v>0.8528604263796593</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.466608285903931</v>
+        <v>0.828635383210143</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2.172245502471924</v>
+        <v>0.7513122093673936</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>1.709571957588196</v>
+        <v>0.6297771887836887</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1.175670623779297</v>
+        <v>0.489532062794394</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.4702405631542206</v>
+        <v>0.3042297953825447</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>-0.2855529189109802</v>
+        <v>0.1056980716313891</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>-0.6581158041954041</v>
+        <v>0.007833306220723868</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>-0.6952582597732544</v>
+        <v>-0.001923268697165165</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>-0.7006598711013794</v>
+        <v>-0.003342163188125996</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>-0.7021691203117371</v>
+        <v>-0.003738612554801707</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>-0.7014278173446655</v>
+        <v>-0.003543887197456214</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>-0.6992737054824829</v>
+        <v>-0.002978045401647977</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>-0.6925956010818481</v>
+        <v>-0.00122384189300509</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>-0.6887763738632202</v>
+        <v>-0.0002206078335638129</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>-0.698658287525177</v>
+        <v>-0.002816387500659601</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>-0.6910046339035034</v>
+        <v>-0.0008059268621884441</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>-0.5460803508758545</v>
+        <v>0.03726276307181309</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>-0.1144283413887024</v>
+        <v>0.1506490511752366</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.7190688252449036</v>
+        <v>0.3695919676731572</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1.519535422325134</v>
+        <v>0.5798584188858846</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>2.106882572174072</v>
+        <v>0.7341426841870486</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>2.446173429489136</v>
+        <v>0.8232675580503508</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>2.684651851654053</v>
+        <v>0.8859110358698279</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>2.657616853713989</v>
+        <v>0.8788094864783411</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2.371826648712158</v>
+        <v>0.8037381563113062</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>2.218116760253906</v>
+        <v>0.763361664799592</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>1.790698766708374</v>
+        <v>0.651087567398029</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1.055005073547363</v>
+        <v>0.457835653320912</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.4139677286148071</v>
+        <v>0.2894480552556703</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>-0.2864678204059601</v>
+        <v>0.1054577454375662</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>-0.6786166429519653</v>
+        <v>0.002448148828835317</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>-0.7000157237052917</v>
+        <v>-0.003172958642268242</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>-0.6945807337760925</v>
+        <v>-0.001745296265152102</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>-0.698630154132843</v>
+        <v>-0.002808997425185839</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>-0.7014311552047729</v>
+        <v>-0.003544763986071731</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>-0.6961740851402283</v>
+        <v>-0.002163837573551264</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>-0.6923564672470093</v>
+        <v>-0.001161026251478181</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>-0.6878552436828613</v>
+        <v>2.135451044338321e-05</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>-0.6794657111167908</v>
+        <v>0.002225115724759807</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>-0.6777087450027466</v>
+        <v>0.002686635332259518</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>-0.5634889006614685</v>
+        <v>0.032689887704455</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>-0.1119922250509262</v>
+        <v>0.1512889698663524</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.7459923624992371</v>
+        <v>0.3766642385876611</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1.554181575775146</v>
+        <v>0.5889592655179341</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>2.086885213851929</v>
+        <v>0.728889780963649</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.474608421325684</v>
+        <v>0.8307368576382941</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.791610479354858</v>
+        <v>0.9140069128936352</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>2.783854484558105</v>
+        <v>0.9119695692899343</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.620595932006836</v>
+        <v>0.8690848360602212</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.256113767623901</v>
+        <v>0.7733427132599962</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1.784541845321655</v>
+        <v>0.6494702681689253</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1.177013516426086</v>
+        <v>0.4898848136427493</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.4795817136764526</v>
+        <v>0.3066835274654548</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>-0.2288438379764557</v>
+        <v>0.1205944048989254</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>-0.6543281674385071</v>
+        <v>0.008828242102196737</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>-0.6979203820228577</v>
+        <v>-0.002622554588869175</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>-0.6943049430847168</v>
+        <v>-0.001672851605793918</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>-0.699745774269104</v>
+        <v>-0.003102048362987248</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>-0.696071982383728</v>
+        <v>-0.002137017236079786</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>-0.6912491321563721</v>
+        <v>-0.0008701516282760557</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>-0.6816104054450989</v>
+        <v>0.001661747725402563</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>-0.6833384037017822</v>
+        <v>0.001207837390530486</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>-0.7013704776763916</v>
+        <v>-0.00352882522159656</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>-0.6921751499176025</v>
+        <v>-0.001113397841327413</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>-0.5694243311882019</v>
+        <v>0.03113076966276757</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>-0.1244264841079712</v>
+        <v>0.1480227404759928</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.7294726371765137</v>
+        <v>0.3723248395030669</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1.540584087371826</v>
+        <v>0.5853874792092971</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2.090264320373535</v>
+        <v>0.7297774041813569</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.486013174057007</v>
+        <v>0.833732656454286</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2.714991331100464</v>
+        <v>0.8938806059906894</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>2.846917629241943</v>
+        <v>0.928534987114179</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>2.579132318496704</v>
+        <v>0.8581931799948306</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.191532373428345</v>
+        <v>0.7563784818712018</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>1.748624086380005</v>
+        <v>0.6400353963882379</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.9976109862327576</v>
+        <v>0.4427593826754475</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.3696591556072235</v>
+        <v>0.277809085636466</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>-0.2948583662509918</v>
+        <v>0.1032537180552772</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>-0.6465190052986145</v>
+        <v>0.01087955169598784</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>-0.6916775107383728</v>
+        <v>-0.0009826780529156032</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>-0.69040447473526</v>
+        <v>-0.0006482771377282204</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>-0.6993298530578613</v>
+        <v>-0.002992794238716345</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>-0.7006206512451172</v>
+        <v>-0.003331860921893526</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>-0.6982508301734924</v>
+        <v>-0.002709356661806661</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>-0.6940225958824158</v>
+        <v>-0.001598684683083801</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>-0.6843551993370056</v>
+        <v>0.0009407456585246166</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>-0.681490421295166</v>
+        <v>0.001693265144742939</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>-0.6886044144630432</v>
+        <v>-0.0001754375629244298</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>-0.564746081829071</v>
+        <v>0.03235965153519138</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>-0.1548517346382141</v>
+        <v>0.1400306400191</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.6073710322380066</v>
+        <v>0.3402512073846926</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1.382429838180542</v>
+        <v>0.5438435436560043</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>1.867824673652649</v>
+        <v>0.6713469896011397</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.412683010101318</v>
+        <v>0.8144702994764288</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.756595849990845</v>
+        <v>0.9048092750612071</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.66543173789978</v>
+        <v>0.8808622991383304</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.556746482849121</v>
+        <v>0.8523128718892607</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>2.210802793502808</v>
+        <v>0.7614404330596904</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>1.759958982467651</v>
+        <v>0.643012845271062</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>1.102939486503601</v>
+        <v>0.4704270580591453</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.4563204050064087</v>
+        <v>0.3005732502315832</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>-0.3021619915962219</v>
+        <v>0.1013352027943901</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>-0.6758652329444885</v>
+        <v>0.003170888816004747</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>-0.7015219926834106</v>
+        <v>-0.003568625161965794</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>-0.6944670081138611</v>
+        <v>-0.001715422824465823</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>-0.6950207948684692</v>
+        <v>-0.001860891449946028</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>-0.6933448314666748</v>
+        <v>-0.001420649623312481</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>-0.6883054971694946</v>
+        <v>-9.691801101580078e-05</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>-0.6818979382514954</v>
+        <v>0.001586218648950449</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>-0.6790761947631836</v>
+        <v>0.00232743382480427</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>-0.6770897507667542</v>
+        <v>0.002849232649621669</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-0.6757846474647522</v>
+        <v>0.003192056998293974</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>-0.5988990664482117</v>
+        <v>0.02338835042108656</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>-0.1984201371669769</v>
+        <v>0.1285860982753896</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.7181622982025146</v>
+        <v>0.369353841279343</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1.518691062927246</v>
+        <v>0.5796366226800347</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>2.034418344497681</v>
+        <v>0.7151077912271631</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.417553663253784</v>
+        <v>0.815749721949762</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.66657543182373</v>
+        <v>0.8811627244946658</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.792741298675537</v>
+        <v>0.9143039563510251</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.492666721343994</v>
+        <v>0.8354804093038288</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.12777304649353</v>
+        <v>0.7396301909928609</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1.705722212791443</v>
+        <v>0.6287659383711912</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1.041399240493774</v>
+        <v>0.4542616750407362</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.3724560737609863</v>
+        <v>0.2785437796969918</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>-0.3701373636722565</v>
+        <v>0.08347944178146682</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>-0.6457527279853821</v>
+        <v>0.01108083731101028</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>-0.6995285153388977</v>
+        <v>-0.003044978818279975</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>-0.6872223019599915</v>
+        <v>0.0001876155516633005</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>-0.6956979036331177</v>
+        <v>-0.002038754283382155</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>-0.6995542645454407</v>
+        <v>-0.003051742616171194</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>-0.6920782327651978</v>
+        <v>-0.001087939657597903</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>-0.6882945895195007</v>
+        <v>-9.405279107577158e-05</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>-0.679454505443573</v>
+        <v>0.002228059229397672</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>-0.6797575950622559</v>
+        <v>0.002148443691719626</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>-0.692468523979187</v>
+        <v>-0.001190461297856688</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>-0.5908671021461487</v>
+        <v>0.02549818565496431</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>-0.1752249002456665</v>
+        <v>0.1346790197917555</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.660136878490448</v>
+        <v>0.3541117323300267</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1.476731181144714</v>
+        <v>0.5686146069358421</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>2.02985668182373</v>
+        <v>0.7139095343285247</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.45168399810791</v>
+        <v>0.8247150734268329</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.638349294662476</v>
+        <v>0.8737482868229514</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.774255037307739</v>
+        <v>0.9094479878594277</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>2.525268316268921</v>
+        <v>0.844044191594987</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2.163471221923828</v>
+        <v>0.7490073826081978</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>1.743425369262695</v>
+        <v>0.6386697981195497</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>1.070896029472351</v>
+        <v>0.4620098873500555</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.3193041384220123</v>
+        <v>0.2645818369256381</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>-0.3478469252586365</v>
+        <v>0.08933469095526583</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>-0.6592565178871155</v>
+        <v>0.007533663711366434</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>-0.7041437029838562</v>
+        <v>-0.004257295648646076</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>-0.692662239074707</v>
+        <v>-0.001241346351436579</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>-0.694146454334259</v>
+        <v>-0.001631219803495815</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>-0.6981523633003235</v>
+        <v>-0.002683491397648535</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>-0.6987951993942261</v>
+        <v>-0.002852351490835903</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>-0.6966434717178345</v>
+        <v>-0.002287135972610183</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>-0.6938571333885193</v>
+        <v>-0.001555221018856801</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>-0.6922531127929688</v>
+        <v>-0.001133877118275867</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>-0.6571532487869263</v>
+        <v>0.008086150137727371</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>-0.5683645606040955</v>
+        <v>0.03140915004819841</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>-0.1968426108360291</v>
+        <v>0.1290004826663347</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.574835479259491</v>
+        <v>0.3317047729825704</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>1.344854235649109</v>
+        <v>0.5339731897583107</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>1.903234958648682</v>
+        <v>0.6806485581983872</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>2.324391603469849</v>
+        <v>0.791277925412732</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>2.672794103622437</v>
+        <v>0.882796244313157</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.697104215621948</v>
+        <v>0.8891820210555796</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>2.454454660415649</v>
+        <v>0.825442870605481</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>2.164952278137207</v>
+        <v>0.7493964262424602</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>1.516371846199036</v>
+        <v>0.5790274111616368</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.6695261001586914</v>
+        <v>0.3565780917346945</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.08820422738790512</v>
+        <v>0.2038765453544917</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>-0.4627892374992371</v>
+        <v>0.05914166081862678</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>-0.6583839654922485</v>
+        <v>0.007762865649629747</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>-0.6933900713920593</v>
+        <v>-0.001432533240440848</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>-0.7059938311576843</v>
+        <v>-0.004743287052682815</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>-0.7036360502243042</v>
+        <v>-0.00412394549438766</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>-0.702436089515686</v>
+        <v>-0.00380873998710457</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>-0.6979544162750244</v>
+        <v>-0.002631494701359677</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>-0.6933333277702332</v>
+        <v>-0.001417627833976837</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>-0.6947796940803528</v>
+        <v>-0.00179755912941354</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>-0.6981773376464844</v>
+        <v>-0.002690051655325432</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>-0.6803321242332458</v>
+        <v>0.001997526451271492</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>-0.5698447227478027</v>
+        <v>0.03102034126802947</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>-0.2102633714675903</v>
+        <v>0.1254751191835022</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.4544356763362885</v>
+        <v>0.3000781699741302</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>1.128608703613281</v>
+        <v>0.4771698443374845</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>1.724704384803772</v>
+        <v>0.6337521725999531</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>2.397967100143433</v>
+        <v>0.810604726353831</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.62440299987793</v>
+        <v>0.8700848761039917</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>2.73088264465332</v>
+        <v>0.8980549339614703</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>2.366673707962036</v>
+        <v>0.8023845825722025</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>2.064628601074219</v>
+        <v>0.723043417103052</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>1.400214552879333</v>
+        <v>0.5485152299689448</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.8727397918701172</v>
+        <v>0.4099582352033369</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.09526877850294113</v>
+        <v>0.2057322606307916</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>-0.4569938182830811</v>
+        <v>0.06066400070928062</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>-0.6520652174949646</v>
+        <v>0.009422673469647064</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>-0.6974431872367859</v>
+        <v>-0.002497205130727487</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>-0.6964507699012756</v>
+        <v>-0.002236517087002898</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>-0.7047260403633118</v>
+        <v>-0.004410263948176951</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>-0.7075967192649841</v>
+        <v>-0.005164333471412041</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>-0.701508641242981</v>
+        <v>-0.003565118007503698</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-0.6969575881958008</v>
+        <v>-0.002369648044107414</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>-0.6920773983001709</v>
+        <v>-0.00108772046044403</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>-0.6834688186645508</v>
+        <v>0.001173580006766567</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>-0.680930495262146</v>
+        <v>0.001840346434998141</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>-0.5830544233322144</v>
+        <v>0.02755041900818964</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>-0.2329860329627991</v>
+        <v>0.1195063337124618</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.4988676905632019</v>
+        <v>0.3117495651151695</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>1.26464319229126</v>
+        <v>0.5129033643634171</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>1.769803643226624</v>
+        <v>0.6455988393509309</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>2.345261096954346</v>
+        <v>0.796759920975818</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.709545850753784</v>
+        <v>0.8924501879922102</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>2.720071077346802</v>
+        <v>0.8952149530080098</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.212606906890869</v>
+        <v>0.7619143373063846</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>1.859588384628296</v>
+        <v>0.6691834823784398</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1.520257949829102</v>
+        <v>0.5800482123072679</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.8915954828262329</v>
+        <v>0.4149112454063461</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.1831871569156647</v>
+        <v>0.2288266476953503</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>-0.4314890503883362</v>
+        <v>0.06736358949136541</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>-0.6658585667610168</v>
+        <v>0.005799438457605971</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>-0.7017617225646973</v>
+        <v>-0.003631597372888345</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>-0.6978143453598022</v>
+        <v>-0.002594700893386537</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>-0.6999858617782593</v>
+        <v>-0.003165114515547157</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>-0.6969283223152161</v>
+        <v>-0.002361960486781944</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>-0.701274037361145</v>
+        <v>-0.003503492293383564</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-0.7025168538093567</v>
+        <v>-0.003829955140212477</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>-0.7001053690910339</v>
+        <v>-0.003196506679371047</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>-0.7019661664962769</v>
+        <v>-0.003685300675589559</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>-0.6733071208000183</v>
+        <v>0.003842853348171249</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>-0.5652470588684082</v>
+        <v>0.03222805495816403</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>-0.2119637131690979</v>
+        <v>0.1250284736685874</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.4712718725204468</v>
+        <v>0.3045006995793342</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1.063887357711792</v>
+        <v>0.460168850454596</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1.659112811088562</v>
+        <v>0.6165225873994442</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.049035787582397</v>
+        <v>0.7189474990856028</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.070596218109131</v>
+        <v>0.7246109898921036</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>1.946483969688416</v>
+        <v>0.6920092022314492</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1.866284847259521</v>
+        <v>0.6709425082244681</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1.204716682434082</v>
+        <v>0.4971618773267377</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>0.7214686274528503</v>
+        <v>0.3702223473738443</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.1623429358005524</v>
+        <v>0.2233512906746391</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>-0.2484469413757324</v>
+        <v>0.1154450645022656</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>-0.5290504097938538</v>
+        <v>0.04173618555906675</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>-0.6532754898071289</v>
+        <v>0.00910475931181956</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>-0.6860946416854858</v>
+        <v>0.0004838291912564463</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>-0.6954595446586609</v>
+        <v>-0.00197614218206954</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>-0.7021642923355103</v>
+        <v>-0.003737344342697124</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-0.7037064433097839</v>
+        <v>-0.004142436340011629</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-0.7014079093933105</v>
+        <v>-0.003538657779642157</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>-0.6963964104652405</v>
+        <v>-0.002222237958121404</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>-0.692757785320282</v>
+        <v>-0.001266444425556124</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>-0.691222071647644</v>
+        <v>-0.0008630433777144231</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>-0.6928123831748962</v>
+        <v>-0.001280786182195875</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>-0.6186432838439941</v>
+        <v>0.0182019422200112</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>-0.2508905231952667</v>
+        <v>0.1148031847794694</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.5451018810272217</v>
+        <v>0.3238943556523671</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1.323795437812805</v>
+        <v>0.5284414677551725</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>1.899108290672302</v>
+        <v>0.6795645656446798</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>2.295612096786499</v>
+        <v>0.7837181287141144</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>2.597137689590454</v>
+        <v>0.8629228282980332</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>2.543844223022461</v>
+        <v>0.8489237081236871</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>2.454756259918213</v>
+        <v>0.8255220947196702</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>2.024389028549194</v>
+        <v>0.7124732919485279</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>1.580229163169861</v>
+        <v>0.5958014420486195</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0.8231587409973145</v>
+        <v>0.3969342918527351</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0.1626511812210083</v>
+        <v>0.2234322605375894</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>-0.4474269151687622</v>
+        <v>0.06317703345078574</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>-0.6775997281074524</v>
+        <v>0.002715271874720315</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>-0.6935967803001404</v>
+        <v>-0.001486831506845449</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>-0.6940556168556213</v>
+        <v>-0.001607358627601724</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>-0.6989511847496033</v>
+        <v>-0.002893325701672361</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>-0.6990172863006592</v>
+        <v>-0.002910689247647785</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>-0.6940940022468567</v>
+        <v>-0.001617441696680322</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>-0.6898554563522339</v>
+        <v>-0.0005040610674130752</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>-0.6891078948974609</v>
+        <v>-0.0003076917314134286</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>-0.6915460228919983</v>
+        <v>-0.0009481388442395267</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>-0.6928125023841858</v>
+        <v>-0.001280817496075004</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>-0.6265034079551697</v>
+        <v>0.0161372459428937</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>-0.2648580968379974</v>
+        <v>0.1111341845330856</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.4867794513702393</v>
+        <v>0.3085742281732083</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1.143734931945801</v>
+        <v>0.4811431998320342</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>1.6796954870224</v>
+        <v>0.6219292417693528</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.013132095336914</v>
+        <v>0.7095163223426524</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2.272005558013916</v>
+        <v>0.7775171664862937</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>2.213838815689087</v>
+        <v>0.7622379349332735</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>1.761010646820068</v>
+        <v>0.6432890963127122</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>1.67743706703186</v>
+        <v>0.6213360003293094</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>1.396922826766968</v>
+        <v>0.5476505598246364</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>0.8059843182563782</v>
+        <v>0.3924229169439806</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0.117492564022541</v>
+        <v>0.2115700014319242</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>-0.4571011960506439</v>
+        <v>0.0606357947326578</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>-0.6831614375114441</v>
+        <v>0.001254322844093159</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>-0.6963487267494202</v>
+        <v>-0.002209712406470971</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>-0.695073664188385</v>
+        <v>-0.00187477915533843</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>-0.6996591091156006</v>
+        <v>-0.003079283172862574</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>-0.6975492238998413</v>
+        <v>-0.002525058826210125</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>-0.6898365616798401</v>
+        <v>-0.0004990978175715699</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>-0.696941077709198</v>
+        <v>-0.002365311071848453</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>-0.7024223208427429</v>
+        <v>-0.003805123234065511</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>-0.6965715289115906</v>
+        <v>-0.002268238046557597</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>-0.7004854083061218</v>
+        <v>-0.003296335326024996</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>-0.6073294878005981</v>
+        <v>0.02117384854622989</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>-0.2027031481266022</v>
+        <v>0.1274610375692083</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>0.4025392830371857</v>
+        <v>0.2864460328062021</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>0.932013988494873</v>
+        <v>0.4255283726934384</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>1.537119269371033</v>
+        <v>0.5844773413124977</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>2.074048757553101</v>
+        <v>0.725517902459353</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>2.321296215057373</v>
+        <v>0.7904648292273444</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>1.852081060409546</v>
+        <v>0.6672114595265959</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>1.624528884887695</v>
+        <v>0.6074380866122986</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1.817254900932312</v>
+        <v>0.6580633289370661</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>1.430213332176208</v>
+        <v>0.556395305023264</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>0.7736743092536926</v>
+        <v>0.383935728401165</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>0.08968263119459152</v>
+        <v>0.2042648922549436</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>-0.4747788906097412</v>
+        <v>0.0559922204547028</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>-0.6775946617126465</v>
+        <v>0.002716602714583183</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>-0.694182813167572</v>
+        <v>-0.001640770536629255</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>-0.7030578851699829</v>
+        <v>-0.003972073180626201</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>-0.7086899876594543</v>
+        <v>-0.0054515130568773</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>-0.7139660120010376</v>
+        <v>-0.006837418376178822</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>-0.7154604196548462</v>
+        <v>-0.007229969164903344</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>-0.7159843444824219</v>
+        <v>-0.007367593663662436</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>-0.7102385759353638</v>
+        <v>-0.005858296003664609</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>-0.7056321501731873</v>
+        <v>-0.004648280743414279</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>-0.6838743686676025</v>
+        <v>0.001067050189979629</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>-0.5582725405693054</v>
+        <v>0.0340601204272539</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>-0.3348299860954285</v>
+        <v>0.09275397867255879</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.1089503839612007</v>
+        <v>0.2093261427953869</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.09985347092151642</v>
+        <v>0.2069365669794537</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.5914337635040283</v>
+        <v>0.3360648079135086</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>1.478805780410767</v>
+        <v>0.5691595623742732</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>2.468446254730225</v>
+        <v>0.8291181805985088</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>2.607333183288574</v>
+        <v>0.8656009791241703</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>2.044456005096436</v>
+        <v>0.7177444824773371</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>1.756216168403625</v>
+        <v>0.6420296834081405</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1.381610631942749</v>
+        <v>0.5436283546786499</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0.9821476340293884</v>
+        <v>0.4386974715307291</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>0.235877126455307</v>
+        <v>0.2426672413566207</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>-0.4827294945716858</v>
+        <v>0.05390375694332861</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>-0.7048799395561218</v>
+        <v>-0.004450690166128729</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>-0.7054991126060486</v>
+        <v>-0.004613334454309587</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>-0.7014663815498352</v>
+        <v>-0.003554017237353491</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>-0.7059204578399658</v>
+        <v>-0.004724013360080714</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>-0.7026421427726746</v>
+        <v>-0.003862866027174006</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>-0.705022394657135</v>
+        <v>-0.004488110251684385</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>-0.6947556734085083</v>
+        <v>-0.001791249382769616</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>-0.6980433464050293</v>
+        <v>-0.002654854855187738</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>-0.7151050567626953</v>
+        <v>-0.007136622491228511</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>-0.7077669501304626</v>
+        <v>-0.005209049690804074</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>-0.5959277153015137</v>
+        <v>0.02416886451524361</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>-0.2340546250343323</v>
+        <v>0.1192256360999756</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>0.5334319472312927</v>
+        <v>0.3208288991122593</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>1.463606476783752</v>
+        <v>0.5651670114718192</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>2.042546987533569</v>
+        <v>0.7172430220170121</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>2.43393874168396</v>
+        <v>0.8200537520078832</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>2.286689519882202</v>
+        <v>0.7813743474892858</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>2.72180438041687</v>
+        <v>0.8956702568105031</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>2.698294639587402</v>
+        <v>0.8894947214525326</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>2.247721433639526</v>
+        <v>0.7711382161695204</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>1.755348563194275</v>
+        <v>0.6418017809958609</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>1.031773686408997</v>
+        <v>0.451733235870701</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>0.2761025428771973</v>
+        <v>0.2532336479879986</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>-0.3988883197307587</v>
+        <v>0.07592714475689978</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>-0.6826614737510681</v>
+        <v>0.001385653253147934</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>-0.6962236762046814</v>
+        <v>-0.002176864147267699</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>-0.6994653940200806</v>
+        <v>-0.00302839811928271</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>-0.7061416506767273</v>
+        <v>-0.004782116262799146</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>-0.707359254360199</v>
+        <v>-0.005101956224192905</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>-0.7025384306907654</v>
+        <v>-0.003835622952334306</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>-0.7004496455192566</v>
+        <v>-0.003286941162287171</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>-0.688615620136261</v>
+        <v>-0.0001783810675622943</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>-0.6895157694816589</v>
+        <v>-0.0004148321688433043</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>-0.7064195275306702</v>
+        <v>-0.004855108915042039</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>-0.5786956548690796</v>
+        <v>0.02869537968455554</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>-0.2019433677196503</v>
+        <v>0.1276606165778183</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0.4416705965995789</v>
+        <v>0.2967250406549609</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>1.075515508651733</v>
+        <v>0.4632233314800702</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>1.620158553123474</v>
+        <v>0.6062900884896575</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>1.954284071922302</v>
+        <v>0.6940581319704267</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>1.921989917755127</v>
+        <v>0.6855751081735348</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2.090679168701172</v>
+        <v>0.7298863764807155</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>2.188894748687744</v>
+        <v>0.7556856309816582</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>2.137557029724121</v>
+        <v>0.7422002463082544</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>1.507693886756897</v>
+        <v>0.5767478860167748</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.5177305936813354</v>
+        <v>0.3167044698078658</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>0.1349442005157471</v>
+        <v>0.216154194809469</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>-0.5064172148704529</v>
+        <v>0.04768146996382303</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>-0.6748723983764648</v>
+        <v>0.003431686458306299</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>-0.6899849772453308</v>
+        <v>-0.000538083597083544</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>-0.6951391100883484</v>
+        <v>-0.00189197047497866</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>-0.7004279494285583</v>
+        <v>-0.003281242036286214</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>-0.6932158470153809</v>
+        <v>-0.001386768006098077</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>-0.7067397236824036</v>
+        <v>-0.004939217994374662</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>-0.6985278129577637</v>
+        <v>-0.002782114459956103</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>-0.7006261348724365</v>
+        <v>-0.003333301360333329</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>-0.6767318844795227</v>
+        <v>0.002943236914758174</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>-0.6545483469963074</v>
+        <v>0.008770405367450884</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>-0.5986099243164062</v>
+        <v>0.02346430223490686</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>-0.2912214696407318</v>
+        <v>0.1042090575365952</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>0.3927442133426666</v>
+        <v>0.2838730653000496</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>1.151061534881592</v>
+        <v>0.483067750843123</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>1.76868999004364</v>
+        <v>0.645306305092135</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>2.227404832839966</v>
+        <v>0.7658014543778211</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>2.666184902191162</v>
+        <v>0.8810601402266489</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>2.606045246124268</v>
+        <v>0.8652626639740921</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>2.409971714019775</v>
+        <v>0.8137580966095852</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>2.064654111862183</v>
+        <v>0.723050118273185</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>1.548022866249084</v>
+        <v>0.5873414965806435</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.9408136606216431</v>
+        <v>0.4278398693088881</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0.1726408898830414</v>
+        <v>0.2260563557798849</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>-0.463678389787674</v>
+        <v>0.05890809842269513</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>-0.6886509656906128</v>
+        <v>-0.0001876656327231829</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>-0.6933566927909851</v>
+        <v>-0.001423765354285539</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>-0.699995219707489</v>
+        <v>-0.00316757265505857</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>-0.7083545923233032</v>
+        <v>-0.005363411457956074</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>-0.7069658041000366</v>
+        <v>-0.004998604766137282</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>-0.7047299146652222</v>
+        <v>-0.004411281649248561</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>-0.6977553963661194</v>
+        <v>-0.002579216180158689</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>-0.6949886679649353</v>
+        <v>-0.001852452359521556</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>-0.7049587965011597</v>
+        <v>-0.004471404297170634</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>-0.6909098625183105</v>
+        <v>-0.000781032328283221</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>-0.5653336644172668</v>
+        <v>0.03220530542497893</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>-0.2198339998722076</v>
+        <v>0.1229611078832744</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.2935943305492401</v>
+        <v>0.2578283882714564</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>1.053371667861938</v>
+        <v>0.4574065905491265</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>1.786604642868042</v>
+        <v>0.6500121235333229</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>2.133235454559326</v>
+        <v>0.7410650555621758</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>2.385510206222534</v>
+        <v>0.8073325512406722</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>2.444775104522705</v>
+        <v>0.8229002462482018</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2.424770593643188</v>
+        <v>0.8176454641920547</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>2.078315734863281</v>
+        <v>0.7266387514487918</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>1.496000051498413</v>
+        <v>0.5736761510439022</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.8451830148696899</v>
+        <v>0.4027196249629154</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>0.0799083411693573</v>
+        <v>0.2016973831493463</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>-0.4839991927146912</v>
+        <v>0.05357023281675674</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>-0.6873286962509155</v>
+        <v>0.0001596679145432767</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>-0.6946128010749817</v>
+        <v>-0.001753719698637024</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>-0.6973234415054321</v>
+        <v>-0.002465750339145339</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>-0.7046337723731995</v>
+        <v>-0.004386027005733373</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>-0.7054569721221924</v>
+        <v>-0.004602264998038508</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>-0.6982667446136475</v>
+        <v>-0.002713537064670007</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>-0.6907346844673157</v>
+        <v>-0.0007350165829074495</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>-0.6848715543746948</v>
+        <v>0.0008051095910900086</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>-0.6784795522689819</v>
+        <v>0.002484159789830298</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>-0.6775680780410767</v>
+        <v>0.002723585709628301</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>-0.5851129293441772</v>
+        <v>0.02700969094344052</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>-0.2701230347156525</v>
+        <v>0.1097511914045428</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0.2326371669769287</v>
+        <v>0.2418161692643228</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.7084529399871826</v>
+        <v>0.3668033884522822</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>1.310067772865295</v>
+        <v>0.5248354866905298</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>1.533012747764587</v>
+        <v>0.5833986408043625</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>0.4792670607566833</v>
+        <v>0.3066008744815015</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>1.372050404548645</v>
+        <v>0.5411170755143758</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0.9595556259155273</v>
+        <v>0.4327630060712109</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>0.2915845215320587</v>
+        <v>0.2573004519263303</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>0.4246484935283661</v>
+        <v>0.2922536770552597</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.09869565069675446</v>
+        <v>0.2066324309284417</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>-0.3661777973175049</v>
+        <v>0.08451954010510927</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>-0.5720946788787842</v>
+        <v>0.03042932311340385</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>-0.6346622109413147</v>
+        <v>0.0139940927416258</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>-0.6579592227935791</v>
+        <v>0.007874437000955969</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>-0.6731082201004028</v>
+        <v>0.003895100555493108</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>-0.6968005299568176</v>
+        <v>-0.002328392008358798</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>-0.6783738732337952</v>
+        <v>0.002511919543675578</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>-0.706973671913147</v>
+        <v>-0.005000671482159602</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>-0.7015048861503601</v>
+        <v>-0.003564131620311217</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>-0.6956338286399841</v>
+        <v>-0.002021923073351889</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>-0.690088152885437</v>
+        <v>-0.0005651857594671794</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>-0.6615553498268127</v>
+        <v>0.006929806866299126</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>-0.5640326142311096</v>
+        <v>0.03254706510176095</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>-0.3082416355609894</v>
+        <v>0.09973820278742986</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>0.3523852527141571</v>
+        <v>0.2732715792955808</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>1.135465145111084</v>
+        <v>0.4789708934093</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>1.593286275863647</v>
+        <v>0.5992312825431778</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>2.11321759223938</v>
+        <v>0.7358067663515666</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>2.508155584335327</v>
+        <v>0.8395490216186803</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>2.263421058654785</v>
+        <v>0.7752621914226665</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>2.041939258575439</v>
+        <v>0.7170833838612274</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>1.714678764343262</v>
+        <v>0.6311186440515708</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>1.313769459724426</v>
+        <v>0.5258078452651529</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>0.7088762521743774</v>
+        <v>0.3669145840370589</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>-0.1319955587387085</v>
+        <v>0.1460344970347617</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>-0.4747165143489838</v>
+        <v>0.05600860544195552</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>-0.6462349891662598</v>
+        <v>0.01095415701300573</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>-0.6748088002204895</v>
+        <v>0.00344839241282005</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>-0.6892592310905457</v>
+        <v>-0.0003474447009639836</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>-0.7089459896087646</v>
+        <v>-0.005518759612300556</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>-0.7208037376403809</v>
+        <v>-0.008633551168971521</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>-0.717957615852356</v>
+        <v>-0.007885932304836418</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>-0.7188915610313416</v>
+        <v>-0.008131260890849673</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>-0.7017856240272522</v>
+        <v>-0.00363787580565314</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>-0.6996004581451416</v>
+        <v>-0.003063876744332561</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>-0.6911710500717163</v>
+        <v>-0.0008496410374484731</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>-0.4938209354877472</v>
+        <v>0.05099025883014985</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>-0.1673087477684021</v>
+        <v>0.1367584335920623</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>0.3748717904090881</v>
+        <v>0.2791783398005422</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>1.106848955154419</v>
+        <v>0.471453996725085</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>1.716281056404114</v>
+        <v>0.6315395339009044</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>2.146586179733276</v>
+        <v>0.7445720221410219</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>2.40161919593811</v>
+        <v>0.8115640583547374</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>2.460941314697266</v>
+        <v>0.8271467840242475</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>2.317485570907593</v>
+        <v>0.7894638497672002</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>2.049145936965942</v>
+        <v>0.7189764331099153</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>1.561026573181152</v>
+        <v>0.5907573084573534</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>0.8835147023200989</v>
+        <v>0.4127885871389662</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>0.2079145312309265</v>
+        <v>0.2353220308431842</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>-0.4653059244155884</v>
+        <v>0.05848057785945658</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>-0.6990200281143188</v>
+        <v>-0.002911409466867687</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>-0.6928234696388245</v>
+        <v>-0.001283698372954584</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>-0.6967797875404358</v>
+        <v>-0.002322943393390869</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>-0.7049506902694702</v>
+        <v>-0.004469274953390057</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>-0.7097585201263428</v>
+        <v>-0.005732195012423918</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>-0.7084589004516602</v>
+        <v>-0.005390811102191417</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>-0.7039269804954529</v>
+        <v>-0.004200367016394868</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>-0.6983394622802734</v>
+        <v>-0.002732638530936915</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>-0.6896704435348511</v>
+        <v>-0.000455461927009404</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>-0.6926308274269104</v>
+        <v>-0.00123309514428685</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>-0.5834206342697144</v>
+        <v>0.02745422277151432</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>-0.2204433679580688</v>
+        <v>0.1228010391616516</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>0.468478262424469</v>
+        <v>0.3037668744789541</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>1.226490378379822</v>
+        <v>0.5028813886629949</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>1.8358314037323</v>
+        <v>0.662943002035162</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>2.323008060455322</v>
+        <v>0.7909144965315948</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>2.590729713439941</v>
+        <v>0.86123958203949</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>2.183583498001099</v>
+        <v>0.7542904724110748</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>1.571158647537231</v>
+        <v>0.5934188002997953</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>0.9659856557846069</v>
+        <v>0.4344520453973924</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>1.450247883796692</v>
+        <v>0.5616579781769508</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>0.9394484162330627</v>
+        <v>0.4274812471081967</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>0.1261545121669769</v>
+        <v>0.2138453207313961</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>-0.47757688164711</v>
+        <v>0.05525724456926484</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>-0.6911826729774475</v>
+        <v>-0.000852694140663246</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>-0.6920614838600159</v>
+        <v>-0.001083540057580712</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>-0.6988584995269775</v>
+        <v>-0.002868979160651847</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>-0.6982553601264954</v>
+        <v>-0.002710546589213464</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>-0.7025424838066101</v>
+        <v>-0.003836687624224594</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>-0.7013298273086548</v>
+        <v>-0.003518147188814574</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>-0.7100131511688232</v>
+        <v>-0.00579908145823721</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>-0.7092211842536926</v>
+        <v>-0.005591047702263097</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>-0.7084054350852966</v>
+        <v>-0.005376766827403345</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>-0.6780381798744202</v>
+        <v>0.002600099427294611</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>-0.5393186211585999</v>
+        <v>0.03903893326666291</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>-0.1975999474525452</v>
+        <v>0.1288015455922468</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>0.4004832208156586</v>
+        <v>0.2859059466759751</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>1.241448283195496</v>
+        <v>0.5068105289602187</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>1.819280862808228</v>
+        <v>0.6585955083128139</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>2.233022212982178</v>
+        <v>0.7672770269900002</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>2.497626066207886</v>
+        <v>0.836783129303232</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>2.496719598770142</v>
+        <v>0.8365450185663572</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>2.212008237838745</v>
+        <v>0.7617570790054133</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>1.836048245429993</v>
+        <v>0.6629999619812923</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>1.39154040813446</v>
+        <v>0.5462367068682148</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>0.6011985540390015</v>
+        <v>0.338629821694363</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>-0.02496496960520744</v>
+        <v>0.1741492768774152</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>-0.496854841709137</v>
+        <v>0.05019331277792138</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>-0.671484649181366</v>
+        <v>0.004321579932250741</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>-0.6892513036727905</v>
+        <v>-0.0003453623280021134</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>-0.6992060542106628</v>
+        <v>-0.002960274775243937</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>-0.7114822268486023</v>
+        <v>-0.006184978047647421</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>-0.7099177837371826</v>
+        <v>-0.005774030354936344</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>-0.7097256183624268</v>
+        <v>-0.005723552381785096</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>-0.7051097750663757</v>
+        <v>-0.004511063325083803</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>-0.6915628910064697</v>
+        <v>-0.0009525697581358739</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>-0.6905147433280945</v>
+        <v>-0.0006772424759198259</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>-0.6943808794021606</v>
+        <v>-0.001692798546797242</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>-0.5756429433822632</v>
+        <v>0.02949726550121615</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>-0.2214632928371429</v>
+        <v>0.1225331254403187</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>0.394345223903656</v>
+        <v>0.2842936185251826</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>1.206327199935913</v>
+        <v>0.497584927833731</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>1.828169107437134</v>
+        <v>0.6609302711404542</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>2.281004428863525</v>
+        <v>0.779880988593763</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>2.323463201522827</v>
+        <v>0.7910340529220983</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>2.481650114059448</v>
+        <v>0.8325865684782716</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>2.106327772140503</v>
+        <v>0.7339969493935958</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>1.941614389419556</v>
+        <v>0.6907300615830281</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>1.134528160095215</v>
+        <v>0.478724766319369</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>0.5584430694580078</v>
+        <v>0.327398817120883</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>-0.02983209304511547</v>
+        <v>0.1728707815884717</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>-0.5091658234596252</v>
+        <v>0.04695946585281305</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>-0.6768622398376465</v>
+        <v>0.002908995187933805</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>-0.6931886672973633</v>
+        <v>-0.001379628441657343</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>-0.7036643028259277</v>
+        <v>-0.00413136688374055</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>-0.7038719058036804</v>
+        <v>-0.004185900004238602</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>-0.7100897431373596</v>
+        <v>-0.005819200625575727</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>-0.7146205902099609</v>
+        <v>-0.007009362886460119</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>-0.713183581829071</v>
+        <v>-0.006631889730534801</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>-0.71044921875</v>
+        <v>-0.005913627628080398</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>-0.6974537372589111</v>
+        <v>-0.002499976409030158</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>-0.6772341728210449</v>
+        <v>0.002811295885060433</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>-0.5821533799171448</v>
+        <v>0.0277871049635641</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>-0.2546998858451843</v>
+        <v>0.1138025419435258</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>0.353887140750885</v>
+        <v>0.2736660950302204</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>1.08266007900238</v>
+        <v>0.4651000661977334</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>1.736928343772888</v>
+        <v>0.6369631603932994</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>2.221566915512085</v>
+        <v>0.7642679510892589</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>2.459742784500122</v>
+        <v>0.8268319542835139</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>2.450303077697754</v>
+        <v>0.8243523334510363</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>2.198134183883667</v>
+        <v>0.7581126444972039</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>1.793204307556152</v>
+        <v>0.6517457225095008</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>1.458243131637573</v>
+        <v>0.5637581687360578</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>0.7595329284667969</v>
+        <v>0.3802210725190153</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>0.03586474433541298</v>
+        <v>0.1901280174335282</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>-0.5079447627067566</v>
+        <v>0.04728021391670148</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>-0.7018783092498779</v>
+        <v>-0.003662222346673655</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>-0.6901662349700928</v>
+        <v>-0.0005856963502947621</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>-0.6983762979507446</v>
+        <v>-0.002742314519586869</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>-0.7065815925598145</v>
+        <v>-0.004897680133713916</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>-0.7060998678207397</v>
+        <v>-0.004771140748165453</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>-0.7053911089897156</v>
+        <v>-0.004584964079821341</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>-0.7011284232139587</v>
+        <v>-0.00346524239003107</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>-0.6905061602592468</v>
+        <v>-0.0006749878766227624</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>-0.6975005865097046</v>
+        <v>-0.002512282763526691</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>-0.7043150067329407</v>
+        <v>-0.004302293692950238</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>-0.5926676988601685</v>
+        <v>0.02502520516770446</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>-0.24981889128685</v>
+        <v>0.1150846808958733</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>0.3296231031417847</v>
+        <v>0.2672924211020799</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>1.060600757598877</v>
+        <v>0.4593055268070901</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>1.661484956741333</v>
+        <v>0.6171457022801741</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>2.11250114440918</v>
+        <v>0.7356185699380189</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>2.34490442276001</v>
+        <v>0.7966662298494729</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2.434834003448486</v>
+        <v>0.8202889192401199</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>2.315338850021362</v>
+        <v>0.7888999494318978</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>1.938786268234253</v>
+        <v>0.689987171114641</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>1.544398903846741</v>
+        <v>0.5863895546552107</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>0.8554750084877014</v>
+        <v>0.4054231243742049</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>0.08356355875730515</v>
+        <v>0.2026575351824624</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>-0.5098066926002502</v>
+        <v>0.04679112243863126</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>-0.7077443599700928</v>
+        <v>-0.005203115710709694</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>-0.6939453482627869</v>
+        <v>-0.001578393289410118</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>-0.6985404491424561</v>
+        <v>-0.002785433731143483</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>-0.7054741978645325</v>
+        <v>-0.004606789853572241</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>-0.711144745349884</v>
+        <v>-0.006096328455841515</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>-0.7099639773368835</v>
+        <v>-0.005786164483097711</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>-0.7057247161865234</v>
+        <v>-0.004672595970555693</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>-0.6959169507026672</v>
+        <v>-0.0020962935362763</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>-0.6861304640769958</v>
+        <v>0.0004744193705790434</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>-0.6918445825576782</v>
+        <v>-0.001026564454510798</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>-0.6077796816825867</v>
+        <v>0.02105559168171026</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>-0.2631538808345795</v>
+        <v>0.111581847749072</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>0.2535296380519867</v>
+        <v>0.2473042005776103</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>1.083992123603821</v>
+        <v>0.4654499674830882</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>1.744044423103333</v>
+        <v>0.6388324110938515</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>2.239709377288818</v>
+        <v>0.7690336103534567</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>2.60613751411438</v>
+        <v>0.8652869009165356</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>2.587230443954468</v>
+        <v>0.8603203944316231</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>2.281252145767212</v>
+        <v>0.779946058834587</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>1.922395825386047</v>
+        <v>0.685681731931959</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>1.4496750831604</v>
+        <v>0.5615075149877501</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>0.7612524628639221</v>
+        <v>0.3806727595684694</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>0.08750263601541519</v>
+        <v>0.2036922514331301</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>-0.5305731892585754</v>
+        <v>0.04133618206711023</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>-0.692995548248291</v>
+        <v>-0.001328899957473095</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>-0.6908991932868958</v>
+        <v>-0.000778229736101449</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>-0.6978843808174133</v>
+        <v>-0.002613097797373093</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>-0.7083296179771423</v>
+        <v>-0.005356851200279178</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>-0.712981104850769</v>
+        <v>-0.006578703106839168</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>-0.7079988718032837</v>
+        <v>-0.005269970842643856</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>-0.6952650547027588</v>
+        <v>-0.001925053588275355</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>-0.6967987418174744</v>
+        <v>-0.002327922300171897</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>-0.6530259251594543</v>
+        <v>0.009170314917770012</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>-0.6601349711418152</v>
+        <v>0.007302911736086354</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>-0.5811673998832703</v>
+        <v>0.02804610205781588</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>-0.3144196271896362</v>
+        <v>0.09811536883019065</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>0.2660427093505859</v>
+        <v>0.2505911323563071</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>1.088862657546997</v>
+        <v>0.4667293586425423</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>1.750567555427551</v>
+        <v>0.6405459065596304</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>2.034428596496582</v>
+        <v>0.7151104842207681</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>2.417652368545532</v>
+        <v>0.8157756498416784</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>2.391653537750244</v>
+        <v>0.8089462806875556</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>2.080462694168091</v>
+        <v>0.7272027144118525</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>1.803914427757263</v>
+        <v>0.654559055351825</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>1.256640672683716</v>
+        <v>0.5108012636576834</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>0.7117831707000732</v>
+        <v>0.3676781729795483</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>0.0007506553083658218</v>
+        <v>0.1809042535510424</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>-0.5392600297927856</v>
+        <v>0.03905432403825337</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>-0.6828985810279846</v>
+        <v>0.001323369947566155</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>-0.6957923769950867</v>
+        <v>-0.00206357053258957</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>-0.6962737441062927</v>
+        <v>-0.002190015976500675</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>-0.7011188268661499</v>
+        <v>-0.0034627216227614</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>-0.701374888420105</v>
+        <v>-0.003529983835124234</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>-0.7082840204238892</v>
+        <v>-0.005344873641513453</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>-0.7125256061553955</v>
+        <v>-0.006459052774698437</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>-0.7088159322738647</v>
+        <v>-0.005484596170173994</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>-0.7060940265655518</v>
+        <v>-0.004769606368088264</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>-0.671360969543457</v>
+        <v>0.004354068081844048</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>-0.5681084394454956</v>
+        <v>0.03147642791750077</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>-0.2490364909172058</v>
+        <v>0.1152902017130475</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>0.2820202112197876</v>
+        <v>0.2547881002616962</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>0.8558071255683899</v>
+        <v>0.4055103648414501</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>1.306061863899231</v>
+        <v>0.5237832150963772</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>1.292636394500732</v>
+        <v>0.5202566147153191</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>1.305831670761108</v>
+        <v>0.5237227479957847</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>1.782176375389099</v>
+        <v>0.6488489068654264</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>1.320493698120117</v>
+        <v>0.5275741672450176</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>1.178099155426025</v>
+        <v>0.4901699891399505</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>1.145485401153564</v>
+        <v>0.4816030128331216</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>0.5657428503036499</v>
+        <v>0.3293163225091684</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>-0.1372787952423096</v>
+        <v>0.144646697225773</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>-0.5414122343063354</v>
+        <v>0.03848898326451117</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>-0.6685402393341064</v>
+        <v>0.00509501708972529</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>-0.6911643743515015</v>
+        <v>-0.0008478874602174113</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>-0.6970838308334351</v>
+        <v>-0.002402809442101916</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>-0.698003888130188</v>
+        <v>-0.002644489961196983</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>-0.6942586302757263</v>
+        <v>-0.00166068616375345</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>-0.6957574486732483</v>
+        <v>-0.002054395566005618</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>-0.6933364868164062</v>
+        <v>-0.001418457651773675</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>-0.6987046599388123</v>
+        <v>-0.002828568599639647</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>-0.7073145508766174</v>
+        <v>-0.005090213519520631</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>-0.6983602643013</v>
+        <v>-0.002738102802844394</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>-0.5889986753463745</v>
+        <v>0.02598898373944689</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>-0.2660652697086334</v>
+        <v>0.1108170845361153</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>0.3890951871871948</v>
+        <v>0.2829145396315306</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>1.250896096229553</v>
+        <v>0.5092922791364769</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>1.86728298664093</v>
+        <v>0.6712046993343908</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>2.256702184677124</v>
+        <v>0.7734972785673626</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>2.542443752288818</v>
+        <v>0.848555832671714</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>2.57274055480957</v>
+        <v>0.8565141924238484</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>2.298229455947876</v>
+        <v>0.7844056562442066</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>1.879723906517029</v>
+        <v>0.6744726783877465</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>1.294431686401367</v>
+        <v>0.5207282017349579</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>0.6849445700645447</v>
+        <v>0.3606282132039218</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>-0.02209703624248505</v>
+        <v>0.1749026252028717</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>-0.5605908036231995</v>
+        <v>0.03345115941988908</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>-0.702898383140564</v>
+        <v>-0.003930175210355491</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>-0.6882790327072144</v>
+        <v>-8.996632984981101e-05</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>-0.6962798833847046</v>
+        <v>-0.002191628641275645</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>-0.7025420069694519</v>
+        <v>-0.00383656236870808</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>-0.7082836031913757</v>
+        <v>-0.005344764042936517</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>-0.7047345042228699</v>
+        <v>-0.004412487233594914</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>-0.6941068768501282</v>
+        <v>-0.001620823595625931</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>-0.6946061253547668</v>
+        <v>-0.001751966121405962</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>-0.6972212791442871</v>
+        <v>-0.002438914344734283</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>-0.6923920512199402</v>
+        <v>-0.001170373444397327</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>-0.6272558569908142</v>
+        <v>0.01593959273784989</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>-0.335653156042099</v>
+        <v>0.09253774850872344</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>0.3218630850315094</v>
+        <v>0.2652540206549585</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>1.201321125030518</v>
+        <v>0.4962699327937105</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>1.825047373771667</v>
+        <v>0.6601102545877796</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>2.173954963684082</v>
+        <v>0.7517612503940616</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>2.43164849281311</v>
+        <v>0.819452149762113</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>2.438326358795166</v>
+        <v>0.8212062906429975</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>2.310814380645752</v>
+        <v>0.7877114624635466</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>1.87808620929718</v>
+        <v>0.6740424883163125</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>1.351359844207764</v>
+        <v>0.5356820820838581</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>0.7637812495231628</v>
+        <v>0.3813370208863709</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>-0.006524458527565002</v>
+        <v>0.1789932276893393</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>-0.587337851524353</v>
+        <v>0.02642524870343141</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>-0.6951143741607666</v>
+        <v>-0.001885472845059993</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>-0.685248076915741</v>
+        <v>0.0007062047038702834</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>-0.6911981105804443</v>
+        <v>-0.000856749288010078</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>-0.6970652937889099</v>
+        <v>-0.002397940133897825</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>-0.7037699818611145</v>
+        <v>-0.00415912663758583</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>-0.7070325613021851</v>
+        <v>-0.005016140538447872</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="n">
-        <v>-0.7022184133529663</v>
+        <v>-0.003751560843820362</v>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="n">
-        <v>-0.6994982361793518</v>
+        <v>-0.003037025092981954</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="n">
-        <v>-0.6899117827415466</v>
+        <v>-0.0005188568753001499</v>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="n">
-        <v>-0.6777025461196899</v>
+        <v>0.002688263653974066</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="n">
-        <v>-0.6201369762420654</v>
+        <v>0.01780957931456145</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="n">
-        <v>-0.3089667558670044</v>
+        <v>0.09954772828917571</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>0.3090857267379761</v>
+        <v>0.2618976660062392</v>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="n">
-        <v>1.023569226264954</v>
+        <v>0.4495780894537278</v>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>1.631364464759827</v>
+        <v>0.6092336557552671</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="n">
-        <v>2.161465883255005</v>
+        <v>0.7484806205335388</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="n">
-        <v>2.405061960220337</v>
+        <v>0.8124684031838985</v>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="n">
-        <v>2.483737707138062</v>
+        <v>0.8331349371295274</v>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="n">
-        <v>2.158225059509277</v>
+        <v>0.7476293214156173</v>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="n">
-        <v>1.582900524139404</v>
+        <v>0.5965031547659557</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="n">
-        <v>0.8128841519355774</v>
+        <v>0.394235364267798</v>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>0.2162210047245026</v>
+        <v>0.2375039741122195</v>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="n">
-        <v>-0.2529699504375458</v>
+        <v>0.1142569611289337</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="n">
-        <v>-0.578369677066803</v>
+        <v>0.02878100748702581</v>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="n">
-        <v>-0.6586117148399353</v>
+        <v>0.007703040483559381</v>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="n">
-        <v>-0.6862052083015442</v>
+        <v>0.0004547855683670055</v>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="n">
-        <v>-0.6952193975448608</v>
+        <v>-0.00191306037257008</v>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>-0.7058795690536499</v>
+        <v>-0.004713272699540444</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="n">
-        <v>-0.7012322545051575</v>
+        <v>-0.003492516778749871</v>
       </c>
     </row>
   </sheetData>
